--- a/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1077,6 +1077,150 @@
       <c r="R9" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O10" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +874,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -886,11 +886,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -905,7 +901,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -921,32 +917,32 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O7" t="n">
-        <v>87.94</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.15</v>
+        <v>1.21</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_54_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -958,7 +954,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -966,14 +966,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -995,26 +995,26 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="O8" t="n">
-        <v>87.91</v>
+        <v>87.94</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.11</v>
+        <v>0.15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1063,26 +1063,26 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="O9" t="n">
-        <v>87.52</v>
+        <v>87.91</v>
       </c>
       <c r="P9" t="n">
         <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1094,11 +1094,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1106,14 +1102,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1135,26 +1131,26 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O10" t="n">
-        <v>86.86</v>
+        <v>87.52</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1201,24 +1197,96 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>14.08</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>

--- a/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -580,17 +580,17 @@
         <v>0.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_26_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_49_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,26 +711,26 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="O4" t="n">
-        <v>89.25</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_54_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -742,11 +742,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -761,7 +757,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -783,26 +779,26 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O5" t="n">
-        <v>88.87</v>
+        <v>89.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,7 +829,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -849,32 +845,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="O6" t="n">
-        <v>88.18000000000001</v>
+        <v>88.87</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.76</v>
+        <v>0.37</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -886,7 +882,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -901,7 +901,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -917,26 +917,26 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="O7" t="n">
-        <v>87.98999999999999</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>0.76</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_54_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1072,11 +1072,11 @@
         <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1137,20 +1137,20 @@
         <v>87.52</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1162,11 +1162,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1181,7 +1177,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1203,26 +1199,26 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="O11" t="n">
-        <v>86.86</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1269,24 +1265,96 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O12" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>14.08</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>

--- a/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,15 @@
           <t>config2str</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>walk_hop</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -587,10 +592,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_49_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,11 +608,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -621,7 +623,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -643,26 +645,27 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="O3" t="n">
-        <v>89.33</v>
+        <v>89.38</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_10_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_15_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,26 +714,27 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="O4" t="n">
-        <v>89.29000000000001</v>
+        <v>89.36</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_28_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -742,7 +746,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -757,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -779,26 +787,27 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="O5" t="n">
-        <v>89.25</v>
+        <v>89.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_10_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -810,11 +819,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -829,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -851,26 +856,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="O6" t="n">
-        <v>88.87</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -882,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -901,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -917,32 +919,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="O7" t="n">
-        <v>88.18000000000001</v>
+        <v>89.25</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -954,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -973,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -989,32 +988,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="O8" t="n">
-        <v>87.94</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="P8" t="n">
         <v>0.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_42_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,7 +1026,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1041,7 +1045,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1057,32 +1061,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="O9" t="n">
-        <v>87.91</v>
+        <v>88.87</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1094,7 +1099,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1109,7 +1118,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1131,26 +1140,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="O10" t="n">
-        <v>87.52</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1170,14 +1180,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1192,33 +1202,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>4096</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="O11" t="n">
-        <v>87.43000000000001</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1249,7 +1260,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1271,26 +1282,27 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="O12" t="n">
-        <v>86.86</v>
+        <v>87.94</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1302,11 +1314,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1321,7 +1329,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1337,28 +1345,451 @@
         </is>
       </c>
       <c r="L13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O14" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_32_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_48_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O16" t="n">
+        <v>87.52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O18" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>8192</v>
       </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O19" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P19" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q19" t="n">
         <v>14.08</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05><NCEK>89.49.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>acm</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_49_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -661,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_15_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>acm</t>
@@ -730,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_28_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -803,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_10_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -872,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1010,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_42_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1083,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1156,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1172,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1202,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>4096</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1298,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1314,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1367,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1383,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1436,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_32_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1452,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1505,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_48_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1521,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1574,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1590,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1643,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1716,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1789,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
